--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.212472666666667</v>
+      </c>
+      <c r="H2">
+        <v>3.637418</v>
+      </c>
+      <c r="I2">
+        <v>0.3880817022420693</v>
+      </c>
+      <c r="J2">
+        <v>0.4065639170329364</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.31142</v>
-      </c>
-      <c r="H2">
-        <v>0.9342600000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.1016343233467506</v>
-      </c>
-      <c r="J2">
-        <v>0.1197416913869573</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.146719</v>
+        <v>0.14839</v>
       </c>
       <c r="N2">
-        <v>0.440157</v>
+        <v>0.44517</v>
       </c>
       <c r="O2">
-        <v>0.002213357657235064</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P2">
-        <v>0.002213357657235064</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q2">
-        <v>0.04569123098000001</v>
+        <v>0.1799188190066667</v>
       </c>
       <c r="R2">
-        <v>0.4112210788200001</v>
+        <v>1.61926937106</v>
       </c>
       <c r="S2">
-        <v>0.0002249531078174349</v>
+        <v>0.001086225627899161</v>
       </c>
       <c r="T2">
-        <v>0.0002650311895215998</v>
+        <v>0.001138344462177087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.31142</v>
+        <v>1.212472666666667</v>
       </c>
       <c r="H3">
-        <v>0.9342600000000001</v>
+        <v>3.637418</v>
       </c>
       <c r="I3">
-        <v>0.1016343233467506</v>
+        <v>0.3880817022420693</v>
       </c>
       <c r="J3">
-        <v>0.1197416913869573</v>
+        <v>0.4065639170329364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.93198366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N3">
-        <v>86.795951</v>
+        <v>151.830096</v>
       </c>
       <c r="O3">
-        <v>0.4364589970461662</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P3">
-        <v>0.4364589970461662</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q3">
-        <v>9.009998353473334</v>
+        <v>61.36328045912533</v>
       </c>
       <c r="R3">
-        <v>81.08998518126</v>
+        <v>552.269524132128</v>
       </c>
       <c r="S3">
-        <v>0.04435921483338853</v>
+        <v>0.3704691272134015</v>
       </c>
       <c r="T3">
-        <v>0.05226233852736294</v>
+        <v>0.3882448255125356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.31142</v>
+        <v>1.212472666666667</v>
       </c>
       <c r="H4">
-        <v>0.9342600000000001</v>
+        <v>3.637418</v>
       </c>
       <c r="I4">
-        <v>0.1016343233467506</v>
+        <v>0.3880817022420693</v>
       </c>
       <c r="J4">
-        <v>0.1197416913869573</v>
+        <v>0.4065639170329364</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>37.20927366666667</v>
+        <v>0.0541875</v>
       </c>
       <c r="N4">
-        <v>111.627821</v>
+        <v>0.108375</v>
       </c>
       <c r="O4">
-        <v>0.5613276452965987</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P4">
-        <v>0.5613276452965988</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q4">
-        <v>11.58771200527334</v>
+        <v>0.06570086262500001</v>
       </c>
       <c r="R4">
-        <v>104.28940804746</v>
+        <v>0.39420517575</v>
       </c>
       <c r="S4">
-        <v>0.05705015540554466</v>
+        <v>0.0003966564540183692</v>
       </c>
       <c r="T4">
-        <v>0.06721432167007277</v>
+        <v>0.0002771257746219238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.259223333333333</v>
+        <v>1.212472666666667</v>
       </c>
       <c r="H5">
-        <v>3.77767</v>
+        <v>3.637418</v>
       </c>
       <c r="I5">
-        <v>0.4109572648698643</v>
+        <v>0.3880817022420693</v>
       </c>
       <c r="J5">
-        <v>0.4841742077170883</v>
+        <v>0.4065639170329364</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.146719</v>
+        <v>2.203488</v>
       </c>
       <c r="N5">
-        <v>0.440157</v>
+        <v>6.610464</v>
       </c>
       <c r="O5">
-        <v>0.002213357657235064</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P5">
-        <v>0.002213357657235064</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q5">
-        <v>0.1847519882433334</v>
+        <v>2.671668971328</v>
       </c>
       <c r="R5">
-        <v>1.66276789419</v>
+        <v>24.045020741952</v>
       </c>
       <c r="S5">
-        <v>0.0009095954089960923</v>
+        <v>0.01612969294675023</v>
       </c>
       <c r="T5">
-        <v>0.001071650690086338</v>
+        <v>0.01690362128360176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>3.77767</v>
       </c>
       <c r="I6">
-        <v>0.4109572648698643</v>
+        <v>0.4030454031152861</v>
       </c>
       <c r="J6">
-        <v>0.4841742077170883</v>
+        <v>0.422240257363276</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>28.93198366666667</v>
+        <v>0.14839</v>
       </c>
       <c r="N6">
-        <v>86.795951</v>
+        <v>0.44517</v>
       </c>
       <c r="O6">
-        <v>0.4364589970461662</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P6">
-        <v>0.4364589970461662</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q6">
-        <v>36.43182891268556</v>
+        <v>0.1868561504333333</v>
       </c>
       <c r="R6">
-        <v>327.88646021417</v>
+        <v>1.6817053539</v>
       </c>
       <c r="S6">
-        <v>0.1793659956539366</v>
+        <v>0.001128108446086159</v>
       </c>
       <c r="T6">
-        <v>0.2113221890958225</v>
+        <v>0.001182236884634242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>3.77767</v>
       </c>
       <c r="I7">
-        <v>0.4109572648698643</v>
+        <v>0.4030454031152861</v>
       </c>
       <c r="J7">
-        <v>0.4841742077170883</v>
+        <v>0.422240257363276</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>37.20927366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N7">
-        <v>111.627821</v>
+        <v>151.830096</v>
       </c>
       <c r="O7">
-        <v>0.5613276452965987</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P7">
-        <v>0.5613276452965988</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q7">
-        <v>46.85478561745222</v>
+        <v>63.72933319514667</v>
       </c>
       <c r="R7">
-        <v>421.69307055707</v>
+        <v>573.56399875632</v>
       </c>
       <c r="S7">
-        <v>0.2306816738069316</v>
+        <v>0.3847537203038667</v>
       </c>
       <c r="T7">
-        <v>0.2717803679311795</v>
+        <v>0.4032148161124018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.07827166666666667</v>
+        <v>1.259223333333333</v>
       </c>
       <c r="H8">
-        <v>0.234815</v>
+        <v>3.77767</v>
       </c>
       <c r="I8">
-        <v>0.02554456322294356</v>
+        <v>0.4030454031152861</v>
       </c>
       <c r="J8">
-        <v>0.03009563211849847</v>
+        <v>0.422240257363276</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.146719</v>
+        <v>0.0541875</v>
       </c>
       <c r="N8">
-        <v>0.440157</v>
+        <v>0.108375</v>
       </c>
       <c r="O8">
-        <v>0.002213357657235064</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P8">
-        <v>0.002213357657235064</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q8">
-        <v>0.01148394066166667</v>
+        <v>0.068234164375</v>
       </c>
       <c r="R8">
-        <v>0.103355465955</v>
+        <v>0.40940498625</v>
       </c>
       <c r="S8">
-        <v>5.653925461022731E-05</v>
+        <v>0.0004119507812001735</v>
       </c>
       <c r="T8">
-        <v>6.66123977988081E-05</v>
+        <v>0.0002878112235151425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.259223333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.77767</v>
+      </c>
+      <c r="I9">
+        <v>0.4030454031152861</v>
+      </c>
+      <c r="J9">
+        <v>0.422240257363276</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.07827166666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.234815</v>
-      </c>
-      <c r="I9">
-        <v>0.02554456322294356</v>
-      </c>
-      <c r="J9">
-        <v>0.03009563211849847</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>28.93198366666667</v>
+        <v>2.203488</v>
       </c>
       <c r="N9">
-        <v>86.795951</v>
+        <v>6.610464</v>
       </c>
       <c r="O9">
-        <v>0.4364589970461662</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P9">
-        <v>0.4364589970461662</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q9">
-        <v>2.264554581562778</v>
+        <v>2.77468350432</v>
       </c>
       <c r="R9">
-        <v>20.380991234065</v>
+        <v>24.97215153888</v>
       </c>
       <c r="S9">
-        <v>0.01114915444426833</v>
+        <v>0.01675162358413302</v>
       </c>
       <c r="T9">
-        <v>0.01313550940991023</v>
+        <v>0.01755539314272483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07827166666666667</v>
+        <v>0.1114676666666667</v>
       </c>
       <c r="H10">
-        <v>0.234815</v>
+        <v>0.334403</v>
       </c>
       <c r="I10">
-        <v>0.02554456322294356</v>
+        <v>0.03567796867856669</v>
       </c>
       <c r="J10">
-        <v>0.03009563211849847</v>
+        <v>0.03737711573087421</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>37.20927366666667</v>
+        <v>0.14839</v>
       </c>
       <c r="N10">
-        <v>111.627821</v>
+        <v>0.44517</v>
       </c>
       <c r="O10">
-        <v>0.5613276452965987</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P10">
-        <v>0.5613276452965988</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q10">
-        <v>2.912431865346111</v>
+        <v>0.01654068705666667</v>
       </c>
       <c r="R10">
-        <v>26.211886788115</v>
+        <v>0.14886618351</v>
       </c>
       <c r="S10">
-        <v>0.014338869524065</v>
+        <v>9.986125010828099E-05</v>
       </c>
       <c r="T10">
-        <v>0.01689351031078943</v>
+        <v>0.0001046527518105987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.390072</v>
+        <v>0.1114676666666667</v>
       </c>
       <c r="H11">
-        <v>2.780144</v>
+        <v>0.334403</v>
       </c>
       <c r="I11">
-        <v>0.4536607383060315</v>
+        <v>0.03567796867856669</v>
       </c>
       <c r="J11">
-        <v>0.3563238765004399</v>
+        <v>0.03737711573087421</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.146719</v>
+        <v>50.610032</v>
       </c>
       <c r="N11">
-        <v>0.440157</v>
+        <v>151.830096</v>
       </c>
       <c r="O11">
-        <v>0.002213357657235064</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P11">
-        <v>0.002213357657235064</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q11">
-        <v>0.203949973768</v>
+        <v>5.641382176965333</v>
       </c>
       <c r="R11">
-        <v>1.223699842608</v>
+        <v>50.772439592688</v>
       </c>
       <c r="S11">
-        <v>0.001004113468916567</v>
+        <v>0.0340587712348548</v>
       </c>
       <c r="T11">
-        <v>0.0007886721805079298</v>
+        <v>0.03569296528083064</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.390072</v>
+        <v>0.1114676666666667</v>
       </c>
       <c r="H12">
-        <v>2.780144</v>
+        <v>0.334403</v>
       </c>
       <c r="I12">
-        <v>0.4536607383060315</v>
+        <v>0.03567796867856669</v>
       </c>
       <c r="J12">
-        <v>0.3563238765004399</v>
+        <v>0.03737711573087421</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>28.93198366666667</v>
+        <v>0.0541875</v>
       </c>
       <c r="N12">
-        <v>86.795951</v>
+        <v>0.108375</v>
       </c>
       <c r="O12">
-        <v>0.4364589970461662</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P12">
-        <v>0.4364589970461662</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q12">
-        <v>40.21754039949067</v>
+        <v>0.006040154187500001</v>
       </c>
       <c r="R12">
-        <v>241.305242396944</v>
+        <v>0.036240925125</v>
       </c>
       <c r="S12">
-        <v>0.1980043108402738</v>
+        <v>3.646628135482496E-05</v>
       </c>
       <c r="T12">
-        <v>0.155520761760984</v>
+        <v>2.547732771182613E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.390072</v>
+        <v>0.1114676666666667</v>
       </c>
       <c r="H13">
-        <v>2.780144</v>
+        <v>0.334403</v>
       </c>
       <c r="I13">
-        <v>0.4536607383060315</v>
+        <v>0.03567796867856669</v>
       </c>
       <c r="J13">
-        <v>0.3563238765004399</v>
+        <v>0.03737711573087421</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>37.20927366666667</v>
+        <v>2.203488</v>
       </c>
       <c r="N13">
-        <v>111.627821</v>
+        <v>6.610464</v>
       </c>
       <c r="O13">
-        <v>0.5613276452965987</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P13">
-        <v>0.5613276452965988</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q13">
-        <v>51.72356946437067</v>
+        <v>0.245617665888</v>
       </c>
       <c r="R13">
-        <v>310.341416786224</v>
+        <v>2.210558992992</v>
       </c>
       <c r="S13">
-        <v>0.2546523139968411</v>
+        <v>0.001482869912248776</v>
       </c>
       <c r="T13">
-        <v>0.200014442558948</v>
+        <v>0.001554020370521144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1281,54 +1281,54 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.02513533333333333</v>
+        <v>0.426084</v>
       </c>
       <c r="H14">
-        <v>0.075406</v>
+        <v>0.852168</v>
       </c>
       <c r="I14">
-        <v>0.008203110254409989</v>
+        <v>0.1363786653209308</v>
       </c>
       <c r="J14">
-        <v>0.009664592277015929</v>
+        <v>0.09524909153969197</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.146719</v>
+        <v>0.14839</v>
       </c>
       <c r="N14">
-        <v>0.440157</v>
+        <v>0.44517</v>
       </c>
       <c r="O14">
-        <v>0.002213357657235064</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P14">
-        <v>0.002213357657235064</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q14">
-        <v>0.003687830971333334</v>
+        <v>0.06322660476</v>
       </c>
       <c r="R14">
-        <v>0.033190478742</v>
+        <v>0.3793596285600001</v>
       </c>
       <c r="S14">
-        <v>1.815641689474182E-05</v>
+        <v>0.0003817185930551174</v>
       </c>
       <c r="T14">
-        <v>2.139119932038807E-05</v>
+        <v>0.0002666893724187112</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1343,19 +1343,19 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.02513533333333333</v>
+        <v>0.426084</v>
       </c>
       <c r="H15">
-        <v>0.075406</v>
+        <v>0.852168</v>
       </c>
       <c r="I15">
-        <v>0.008203110254409989</v>
+        <v>0.1363786653209308</v>
       </c>
       <c r="J15">
-        <v>0.009664592277015929</v>
+        <v>0.09524909153969197</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.93198366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N15">
-        <v>86.795951</v>
+        <v>151.830096</v>
       </c>
       <c r="O15">
-        <v>0.4364589970461662</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P15">
-        <v>0.4364589970461662</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q15">
-        <v>0.7272150534562222</v>
+        <v>21.564124874688</v>
       </c>
       <c r="R15">
-        <v>6.544935481106</v>
+        <v>129.384749248128</v>
       </c>
       <c r="S15">
-        <v>0.003580321274298905</v>
+        <v>0.130189299882165</v>
       </c>
       <c r="T15">
-        <v>0.004218198252086496</v>
+        <v>0.0909573264517211</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.426084</v>
+      </c>
+      <c r="H16">
+        <v>0.852168</v>
+      </c>
+      <c r="I16">
+        <v>0.1363786653209308</v>
+      </c>
+      <c r="J16">
+        <v>0.09524909153969197</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0541875</v>
+      </c>
+      <c r="N16">
+        <v>0.108375</v>
+      </c>
+      <c r="O16">
+        <v>0.001022095223059374</v>
+      </c>
+      <c r="P16">
+        <v>0.0006816290453032835</v>
+      </c>
+      <c r="Q16">
+        <v>0.02308842675</v>
+      </c>
+      <c r="R16">
+        <v>0.09235370700000001</v>
+      </c>
+      <c r="S16">
+        <v>0.0001393919823517365</v>
+      </c>
+      <c r="T16">
+        <v>6.492454733220529E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.426084</v>
+      </c>
+      <c r="H17">
+        <v>0.852168</v>
+      </c>
+      <c r="I17">
+        <v>0.1363786653209308</v>
+      </c>
+      <c r="J17">
+        <v>0.09524909153969197</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.203488</v>
+      </c>
+      <c r="N17">
+        <v>6.610464</v>
+      </c>
+      <c r="O17">
+        <v>0.04156262161695323</v>
+      </c>
+      <c r="P17">
+        <v>0.04157678676199977</v>
+      </c>
+      <c r="Q17">
+        <v>0.9388709809920001</v>
+      </c>
+      <c r="R17">
+        <v>5.633225885952</v>
+      </c>
+      <c r="S17">
+        <v>0.00566825486335895</v>
+      </c>
+      <c r="T17">
+        <v>0.003960151168219969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.02513533333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.075406</v>
-      </c>
-      <c r="I16">
-        <v>0.008203110254409989</v>
-      </c>
-      <c r="J16">
-        <v>0.009664592277015929</v>
-      </c>
-      <c r="K16">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.115024</v>
+      </c>
+      <c r="H18">
+        <v>0.345072</v>
+      </c>
+      <c r="I18">
+        <v>0.03681626064314723</v>
+      </c>
+      <c r="J18">
+        <v>0.03856961833322137</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>37.20927366666667</v>
-      </c>
-      <c r="N16">
-        <v>111.627821</v>
-      </c>
-      <c r="O16">
-        <v>0.5613276452965987</v>
-      </c>
-      <c r="P16">
-        <v>0.5613276452965988</v>
-      </c>
-      <c r="Q16">
-        <v>0.9352674967028889</v>
-      </c>
-      <c r="R16">
-        <v>8.417407470325999</v>
-      </c>
-      <c r="S16">
-        <v>0.004604632563216342</v>
-      </c>
-      <c r="T16">
-        <v>0.005425002825609045</v>
+      <c r="M18">
+        <v>0.14839</v>
+      </c>
+      <c r="N18">
+        <v>0.44517</v>
+      </c>
+      <c r="O18">
+        <v>0.002798961202302754</v>
+      </c>
+      <c r="P18">
+        <v>0.002799915128928837</v>
+      </c>
+      <c r="Q18">
+        <v>0.01706841136</v>
+      </c>
+      <c r="R18">
+        <v>0.15361570224</v>
+      </c>
+      <c r="S18">
+        <v>0.0001030472851540349</v>
+      </c>
+      <c r="T18">
+        <v>0.0001079916578881975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.115024</v>
+      </c>
+      <c r="H19">
+        <v>0.345072</v>
+      </c>
+      <c r="I19">
+        <v>0.03681626064314723</v>
+      </c>
+      <c r="J19">
+        <v>0.03856961833322137</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.610032</v>
+      </c>
+      <c r="N19">
+        <v>151.830096</v>
+      </c>
+      <c r="O19">
+        <v>0.9546163219576846</v>
+      </c>
+      <c r="P19">
+        <v>0.9549416690637682</v>
+      </c>
+      <c r="Q19">
+        <v>5.821368320767999</v>
+      </c>
+      <c r="R19">
+        <v>52.392314886912</v>
+      </c>
+      <c r="S19">
+        <v>0.03514540332339668</v>
+      </c>
+      <c r="T19">
+        <v>0.03683173570627893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.115024</v>
+      </c>
+      <c r="H20">
+        <v>0.345072</v>
+      </c>
+      <c r="I20">
+        <v>0.03681626064314723</v>
+      </c>
+      <c r="J20">
+        <v>0.03856961833322137</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0541875</v>
+      </c>
+      <c r="N20">
+        <v>0.108375</v>
+      </c>
+      <c r="O20">
+        <v>0.001022095223059374</v>
+      </c>
+      <c r="P20">
+        <v>0.0006816290453032835</v>
+      </c>
+      <c r="Q20">
+        <v>0.006232863</v>
+      </c>
+      <c r="R20">
+        <v>0.037397178</v>
+      </c>
+      <c r="S20">
+        <v>3.762972413426961E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.62901721221857E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.115024</v>
+      </c>
+      <c r="H21">
+        <v>0.345072</v>
+      </c>
+      <c r="I21">
+        <v>0.03681626064314723</v>
+      </c>
+      <c r="J21">
+        <v>0.03856961833322137</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>2.203488</v>
+      </c>
+      <c r="N21">
+        <v>6.610464</v>
+      </c>
+      <c r="O21">
+        <v>0.04156262161695323</v>
+      </c>
+      <c r="P21">
+        <v>0.04157678676199977</v>
+      </c>
+      <c r="Q21">
+        <v>0.253454003712</v>
+      </c>
+      <c r="R21">
+        <v>2.281086033408</v>
+      </c>
+      <c r="S21">
+        <v>0.001530180310462256</v>
+      </c>
+      <c r="T21">
+        <v>0.001603600796932062</v>
       </c>
     </row>
   </sheetData>
